--- a/biology/Botanique/Gyroporus_cyanescens/Gyroporus_cyanescens.xlsx
+++ b/biology/Botanique/Gyroporus_cyanescens/Gyroporus_cyanescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet indigotier
-Gyroporus cyanescens, le Bolet indigotier[1], anciennement Boletus cyanescens, est une espèce de champignons basidiomycètes de la famille des Gyroporaceae. Il doit son nom à la particularité qu'a sa chair de virer à l'indigo au moindre contact. Bien qu'il ne soit pas le seul bolet à présenter ce phénomène, le contraste qu'il offre avec les couleurs pâles et ternes du champignon intact permet de le distinguer aisément. C'est une espèce peu commune, mais assez largement répandue.
+Gyroporus cyanescens, le Bolet indigotier, anciennement Boletus cyanescens, est une espèce de champignons basidiomycètes de la famille des Gyroporaceae. Il doit son nom à la particularité qu'a sa chair de virer à l'indigo au moindre contact. Bien qu'il ne soit pas le seul bolet à présenter ce phénomène, le contraste qu'il offre avec les couleurs pâles et ternes du champignon intact permet de le distinguer aisément. C'est une espèce peu commune, mais assez largement répandue.
 </t>
         </is>
       </c>
@@ -512,58 +524,54 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyroporus cyanescens (Bull.) Quél[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus cyanescens Bull. 1788[2].
-Synonymes
-Gyroporus cyanescens a pour synonymes[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyroporus cyanescens (Bull.) Quél.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus cyanescens Bull. 1788.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gyroporus cyanescens a pour synonymes:
 Boletus cyanescens Bull., Herb. Fr. (Paris) 8: pl. 369 (1788)
 Suillus cyanescens (Bull.) P. Karst., Bidr. Känn. Finl. Nat. Folk 37: 1 (1882)
 Leucoconius cyanescens (Bull.) Beck, Z. Pilzk. 2(7): 142 (1923)
 Boletus constrictus Pers., Syn. meth. fung. (Göttingen) 2: 508 (1801)
-Leccinum constrictum (Pers.) Gray, Nat. Arr. Brit. Pl. (London) 1: 647 (1821)
-Phylogénie
-L'espèce est décrite pour la première fois en 1788 par le botaniste français Pierre Bulliard sous le nom de Boletus cyanescens. Au cours du XIXe siècle, les mycologues la transfèrent dans les genres Leccinum, puis Suillus. C'est finalement Lucien Quélet qui crée en 1886 le genre Gyroporus, avec Gyroporus cyanescens comme espèce type[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gyroporus_cyanescens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gyroporus_cyanescens</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménium, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Gyroporus cyanescens, le Bolet indogotier, sont les suivantes :
-Son chapeau mesure 3,5 à 12 cm, il est sec, feutré voire méchuleux, de couleur blanchâtre à crème ochracé ou jaune à brun-jaune[4].
-L'hyménophore présente des tubes blancs puis ochracés. Les pores sont blancs puis jaunâtres, bleuissant très intensément au toucher[4].
-Son stipe mesure 4 à 10 cm x 1,5 à 3 cm, il est concolore au chapeau jusqu'à une sorte de zone annulaire. Il est typiquement creux et percé de "cavernes"[4].
-La chair est blanche et cassante[5], bleuissant généralement très intensément à la coupe[4]. Sa saveur est douce et son odeur est faible[4]. La sporée est jaune pâle[6].
-Ce champignon se reconnaît immédiatement à sa teinte terne contrastant avec le fort bleuissement qui se produit lorsque l'on touche n'importe laquelle de ses parties. Ce phénomène est particulièrement intense sur la face poroïde, qui est naturellement maculée de bleu par contact avec des feuilles mortes, des petites branches ou des insectes. De même la chair blanchâtre tourne immédiatement à l'indigo une fois exposée à l'air[6]. Néanmoins, l'intensité de ce bleuissement peut être atténué si le spécimen est trop vieux ou alors si l'environnement est trop sec.
-Caractéristiques microscopiques
-Ses spores mesurent 7,5 à 10 μm x 4 à 6 μm. Elles sont ovoïdes ou elliptiques[4].
-</t>
+Leccinum constrictum (Pers.) Gray, Nat. Arr. Brit. Pl. (London) 1: 647 (1821)</t>
         </is>
       </c>
     </row>
@@ -588,12 +596,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite pour la première fois en 1788 par le botaniste français Pierre Bulliard sous le nom de Boletus cyanescens. Au cours du XIXe siècle, les mycologues la transfèrent dans les genres Leccinum, puis Suillus. C'est finalement Lucien Quélet qui crée en 1886 le genre Gyroporus, avec Gyroporus cyanescens comme espèce type.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménium, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Gyroporus cyanescens, le Bolet indogotier, sont les suivantes :
+Son chapeau mesure 3,5 à 12 cm, il est sec, feutré voire méchuleux, de couleur blanchâtre à crème ochracé ou jaune à brun-jaune.
+L'hyménophore présente des tubes blancs puis ochracés. Les pores sont blancs puis jaunâtres, bleuissant très intensément au toucher.
+Son stipe mesure 4 à 10 cm x 1,5 à 3 cm, il est concolore au chapeau jusqu'à une sorte de zone annulaire. Il est typiquement creux et percé de "cavernes".
+La chair est blanche et cassante, bleuissant généralement très intensément à la coupe. Sa saveur est douce et son odeur est faible. La sporée est jaune pâle.
+Ce champignon se reconnaît immédiatement à sa teinte terne contrastant avec le fort bleuissement qui se produit lorsque l'on touche n'importe laquelle de ses parties. Ce phénomène est particulièrement intense sur la face poroïde, qui est naturellement maculée de bleu par contact avec des feuilles mortes, des petites branches ou des insectes. De même la chair blanchâtre tourne immédiatement à l'indigo une fois exposée à l'air. Néanmoins, l'intensité de ce bleuissement peut être atténué si le spécimen est trop vieux ou alors si l'environnement est trop sec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 7,5 à 10 μm x 4 à 6 μm. Elles sont ovoïdes ou elliptiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_cyanescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Bolet indigotier a plusieurs formes et variétés[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Bolet indigotier a plusieurs formes et variétés :
 Gyroporus cyanescens f. immutabilis, dont la chair ne bleuit pas du tout ;
 Gyroporus cyanescens var. vinosovirescens, dont toutes les parties virent au brun vineux.</t>
         </is>
